--- a/Source Code/latihan/tugas-minggu-7/assets/GeneratedDocument/Generated Production Komoditas Reports For Farm Pak Dengklek Created At-2023-01-16.xlsx
+++ b/Source Code/latihan/tugas-minggu-7/assets/GeneratedDocument/Generated Production Komoditas Reports For Farm Pak Dengklek Created At-2023-01-16.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>REPORT FILE GENERATED BY QUARKUS</t>
   </si>
@@ -53,6 +53,42 @@
   </si>
   <si>
     <t>UPDATED AT</t>
+  </si>
+  <si>
+    <t>cb155049-a59d-4c91-9454-a2fbac1c94a4</t>
+  </si>
+  <si>
+    <t>Bawang</t>
+  </si>
+  <si>
+    <t>2023-01-16T09:00:57.893924Z</t>
+  </si>
+  <si>
+    <t>00003944-c211-4828-84e0-8db3ceaa60fb</t>
+  </si>
+  <si>
+    <t>Brokoli</t>
+  </si>
+  <si>
+    <t>2023-01-16T09:01:05.133635Z</t>
+  </si>
+  <si>
+    <t>be6377de-e61e-4281-a6ea-9d20a5de0293</t>
+  </si>
+  <si>
+    <t>Wortel</t>
+  </si>
+  <si>
+    <t>2023-01-16T09:01:11.259338Z</t>
+  </si>
+  <si>
+    <t>7804bc9d-17f7-4293-9575-4fbd60f0fb8c</t>
+  </si>
+  <si>
+    <t>Jamur Trufle</t>
+  </si>
+  <si>
+    <t>2023-01-16T09:01:19.391102Z</t>
   </si>
 </sst>
 </file>
@@ -408,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECEC85C-72A7-4AB3-AF98-47886E3F9A4F}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -447,6 +483,74 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>310.0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>410.0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>

--- a/Source Code/latihan/tugas-minggu-7/assets/GeneratedDocument/Generated Production Komoditas Reports For Farm Pak Dengklek Created At-2023-01-16.xlsx
+++ b/Source Code/latihan/tugas-minggu-7/assets/GeneratedDocument/Generated Production Komoditas Reports For Farm Pak Dengklek Created At-2023-01-16.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="530">
   <si>
     <t>REPORT FILE GENERATED BY QUARKUS</t>
   </si>
@@ -46,7 +46,7 @@
     <t>KOMODITAS</t>
   </si>
   <si>
-    <t>TOTAL</t>
+    <t>TOTAL(KG)</t>
   </si>
   <si>
     <t>CREATED AT</t>
@@ -89,6 +89,1542 @@
   </si>
   <si>
     <t>2023-01-16T09:01:19.391102Z</t>
+  </si>
+  <si>
+    <t>d228693a-5781-45fa-9958-00c98eb4acd9</t>
+  </si>
+  <si>
+    <t>Jamur Enoki</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:43:27.447133Z</t>
+  </si>
+  <si>
+    <t>ad6b0e14-5091-4b8b-8dcd-f9f096969710</t>
+  </si>
+  <si>
+    <t>Tomat</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:45:41.005650Z</t>
+  </si>
+  <si>
+    <t>ad2515b3-9c55-4739-9013-8674be0a40d9</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:45:42.014839Z</t>
+  </si>
+  <si>
+    <t>a9f72c3f-e216-45ed-97b8-662a30a3063f</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:45:43.013496Z</t>
+  </si>
+  <si>
+    <t>6f9ecdba-df93-42e5-ae9a-cbfb7be46b75</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:45:44.008310Z</t>
+  </si>
+  <si>
+    <t>75793fae-1c09-4e0f-b0de-11daded490e2</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:45:45.014212Z</t>
+  </si>
+  <si>
+    <t>fd75eb9a-44f3-463c-8143-bcaec268737a</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:45:45.570483Z</t>
+  </si>
+  <si>
+    <t>5c212908-b939-4f0e-897f-477a72bf30f1</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:45:46.001065Z</t>
+  </si>
+  <si>
+    <t>b3353d50-714c-41d6-9bf6-cd65449f15f4</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:45:47.007255Z</t>
+  </si>
+  <si>
+    <t>93ed1e22-ccd2-43af-b794-c216c7b3b9dc</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:45:48.002262Z</t>
+  </si>
+  <si>
+    <t>3e8de1be-1ae9-42ac-ac34-4c419ef3a668</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:45:49.000610Z</t>
+  </si>
+  <si>
+    <t>cac04ba6-7334-4af3-97e5-9eb906424025</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:45:50.011274Z</t>
+  </si>
+  <si>
+    <t>711100a3-7daf-4fd8-ad6a-58c8fdfe0c34</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:45:51.006313Z</t>
+  </si>
+  <si>
+    <t>a90292ba-fc40-4961-a03d-c1a86afb5a03</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:45:52.003950Z</t>
+  </si>
+  <si>
+    <t>db1e9e9c-1579-4a0a-9627-2a154d927aeb</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:45:53.001897Z</t>
+  </si>
+  <si>
+    <t>fe11975a-df77-40db-b1f6-baa97541433f</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:45:53.417780Z</t>
+  </si>
+  <si>
+    <t>81b345b5-d517-42d9-928e-b7bec993629b</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:45:54.006982Z</t>
+  </si>
+  <si>
+    <t>0d32c333-e293-41a3-8fa9-3540f081f5c7</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:45:55.004471Z</t>
+  </si>
+  <si>
+    <t>20e34042-5d76-402c-b71f-d27172a162f8</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:45:56.014509Z</t>
+  </si>
+  <si>
+    <t>adf34a50-6d75-47ab-b158-14ab8c9ef013</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:45:57.013811Z</t>
+  </si>
+  <si>
+    <t>122be578-3241-4ce9-80dc-d5758ab48f5e</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:45:58.010699Z</t>
+  </si>
+  <si>
+    <t>28fb0522-8d65-4953-b73c-3c8d35945158</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:45:58.913686Z</t>
+  </si>
+  <si>
+    <t>1e2085dd-6234-4b43-829e-e2976ac49837</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:45:59.009686Z</t>
+  </si>
+  <si>
+    <t>2e6687b5-a966-4992-a0be-fc60fba709c0</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:00.007916Z</t>
+  </si>
+  <si>
+    <t>323cf1dc-4160-4080-9907-4a17286a051b</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:01.002711Z</t>
+  </si>
+  <si>
+    <t>b62f851e-207a-4ed3-996e-41e373940501</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:02.008487Z</t>
+  </si>
+  <si>
+    <t>62e9ef13-3ab9-4fd6-b6cf-82cb2a43b335</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:03.002347Z</t>
+  </si>
+  <si>
+    <t>98727e27-03f5-4205-9b52-c7548d798900</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:04.014249Z</t>
+  </si>
+  <si>
+    <t>24752b43-ccb8-4b78-8cb2-cbb5a009c0aa</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:05.014343Z</t>
+  </si>
+  <si>
+    <t>f6f58795-18f9-45f4-89ad-6904e5561fc6</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:06.010316Z</t>
+  </si>
+  <si>
+    <t>dce17584-a76a-476b-bf5e-d1bbe3361096</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:07.013749Z</t>
+  </si>
+  <si>
+    <t>f2b1312d-5294-4ab9-b575-ad7507d99e30</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:07.495377Z</t>
+  </si>
+  <si>
+    <t>08cc262e-226a-409c-a2cf-08de69db130c</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:08.014822Z</t>
+  </si>
+  <si>
+    <t>49b3d53c-8b21-4440-b9cc-51eb52467aaf</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:09.010920Z</t>
+  </si>
+  <si>
+    <t>2d0a9c0f-0df1-4831-9dc4-71e4bc470b85</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:10.007258Z</t>
+  </si>
+  <si>
+    <t>7b7d51f9-59d6-4a47-9aa6-78bc8ec7b0c5</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:11.003349Z</t>
+  </si>
+  <si>
+    <t>b4c5605c-c693-449c-9a4c-380d92ef9cdd</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:12.002580Z</t>
+  </si>
+  <si>
+    <t>c6521b0d-5cbc-424f-bf24-bc0c95272008</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:13.008496Z</t>
+  </si>
+  <si>
+    <t>0cb17ecf-fc41-4db3-9530-17c13282b159</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:14.000669Z</t>
+  </si>
+  <si>
+    <t>1a2b49c7-e3ea-4619-b67d-833c6bf3d3bf</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:15.009798Z</t>
+  </si>
+  <si>
+    <t>f8f1d858-1e7b-4069-8d52-9d941eaeb3b5</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:16.007480Z</t>
+  </si>
+  <si>
+    <t>ce5df3da-adce-48ab-9a7f-4ee9deddaac4</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:17.012270Z</t>
+  </si>
+  <si>
+    <t>7848bdfa-8a28-4a6d-a3bc-0116c45d75ba</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:18.009675Z</t>
+  </si>
+  <si>
+    <t>a73dd150-cac3-4a0f-95f6-68ec0c5915b9</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:19.001940Z</t>
+  </si>
+  <si>
+    <t>0c77fbab-f109-4830-8de9-2a77a8ced53f</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:20.012523Z</t>
+  </si>
+  <si>
+    <t>cce2fd83-8515-41bc-a7ef-a3a04dd13303</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:21.003127Z</t>
+  </si>
+  <si>
+    <t>5bded242-d78a-40c9-becf-b7facda7e94a</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:22.012373Z</t>
+  </si>
+  <si>
+    <t>3d8790c3-3c12-4fc9-bb0f-8b790508c754</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:23.009565Z</t>
+  </si>
+  <si>
+    <t>69c848f5-c8a1-4b2e-af10-edb007786c63</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:24.001808Z</t>
+  </si>
+  <si>
+    <t>548f9f31-6500-4283-9bdf-7cff75e035fe</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:25.011796Z</t>
+  </si>
+  <si>
+    <t>991e54f2-4130-4afe-a6e1-a9a924cd3d62</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:26.000571Z</t>
+  </si>
+  <si>
+    <t>e9d5a2c6-1fd8-408d-972d-94333cdf7e3e</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:27.010027Z</t>
+  </si>
+  <si>
+    <t>03924d67-1952-4d98-96f0-807420c611c1</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:28.014018Z</t>
+  </si>
+  <si>
+    <t>baf4c81a-812a-4730-b878-76da195ec42b</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:29.010099Z</t>
+  </si>
+  <si>
+    <t>f5ef2c26-1de1-4e2e-9aae-7aaea1f39948</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:30.010996Z</t>
+  </si>
+  <si>
+    <t>06edca3a-cffc-4fb3-b4af-05fa49363810</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:31.008380Z</t>
+  </si>
+  <si>
+    <t>d7dc0eab-2844-4b34-8839-d804812ccb59</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:32.014130Z</t>
+  </si>
+  <si>
+    <t>49bcf96c-293a-41cc-aa8e-18bc9b90c390</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:33.010092Z</t>
+  </si>
+  <si>
+    <t>d72cba98-d00f-4a87-af23-3c7559cbdd48</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:34.008016Z</t>
+  </si>
+  <si>
+    <t>c2592c14-c5de-4b88-bad7-8b57837f7a2a</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:35.004336Z</t>
+  </si>
+  <si>
+    <t>da620051-b8a1-4af4-a8f6-870686b06d38</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:36.014124Z</t>
+  </si>
+  <si>
+    <t>e5cf2353-8eb4-4623-bd8b-9f6f96d7a29d</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:37.004155Z</t>
+  </si>
+  <si>
+    <t>dd2277c4-f647-4fdc-ad8a-754b3e8ec8b6</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:38.016672Z</t>
+  </si>
+  <si>
+    <t>03e2f6fd-670d-4825-be40-8a465a502935</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:39.012474Z</t>
+  </si>
+  <si>
+    <t>8366026c-e1f3-4d3d-bc82-f573e69317ed</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:40.008722Z</t>
+  </si>
+  <si>
+    <t>102b7d9c-7ebe-415a-b944-dd962e7356f0</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:41.002919Z</t>
+  </si>
+  <si>
+    <t>79f4272d-ed53-45a0-821a-5e8871f0a218</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:42.014607Z</t>
+  </si>
+  <si>
+    <t>53a8d9c7-09a6-47d9-8ed6-110720e9f4ac</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:43.009002Z</t>
+  </si>
+  <si>
+    <t>2b91f3f5-8adc-4047-b485-79358b4fb304</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:44.002361Z</t>
+  </si>
+  <si>
+    <t>9c77e0fe-a515-4b4b-9916-85aedd674adc</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:45.006162Z</t>
+  </si>
+  <si>
+    <t>37bb8532-2a6e-4c08-b327-04a7b200a7da</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:46.004811Z</t>
+  </si>
+  <si>
+    <t>0e12246e-d001-4056-8d48-768ab960acdd</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:47.014595Z</t>
+  </si>
+  <si>
+    <t>83e26ea4-78ce-4edc-9136-42dae5f4af21</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:48.006848Z</t>
+  </si>
+  <si>
+    <t>312b8218-7461-48ab-960b-40fc6a97e57a</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:49.014705Z</t>
+  </si>
+  <si>
+    <t>7b62f52a-25b1-47bc-85eb-85121c800ed0</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:50.004959Z</t>
+  </si>
+  <si>
+    <t>cd6d52d3-c9ef-42ef-8321-2b54657c245b</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:51.004647Z</t>
+  </si>
+  <si>
+    <t>c5183694-dc31-4e60-8e01-0de42a8472ef</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:52.013852Z</t>
+  </si>
+  <si>
+    <t>ebafb30b-4f82-405f-9c33-572b3b2452f8</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:53.007652Z</t>
+  </si>
+  <si>
+    <t>17ba54db-2136-4cb5-9680-558d64528057</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:54.000823Z</t>
+  </si>
+  <si>
+    <t>f2eb45d0-1a6c-4249-8788-cbec1474b9ef</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:55.014091Z</t>
+  </si>
+  <si>
+    <t>9a14e809-cb91-404a-bf6f-dac8f1c0bbca</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:56.006580Z</t>
+  </si>
+  <si>
+    <t>8d26a7f8-704e-4f72-a0da-19f9516647e6</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:57.004228Z</t>
+  </si>
+  <si>
+    <t>376162a6-cc14-45bb-bf96-037c5ed1203a</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:58.012939Z</t>
+  </si>
+  <si>
+    <t>a63aa2ce-60a2-4e27-9f8b-8bc5d49b7f50</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:46:59.006133Z</t>
+  </si>
+  <si>
+    <t>b07595ef-1964-416b-a246-97dbea4c8aeb</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:00.004261Z</t>
+  </si>
+  <si>
+    <t>9bdcbe77-c779-477e-8148-7a46d7893ada</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:01.015716Z</t>
+  </si>
+  <si>
+    <t>4602bd5e-af31-4a4b-9509-197279b9c057</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:02.012264Z</t>
+  </si>
+  <si>
+    <t>2c11d5b9-3730-460d-ac97-a0796e7f6d89</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:03.005991Z</t>
+  </si>
+  <si>
+    <t>94dd4e5c-1ae8-4321-9022-cfae90cbc4e1</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:04.000868Z</t>
+  </si>
+  <si>
+    <t>e1c55317-f669-4d6a-ad22-a729daf90086</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:05.014332Z</t>
+  </si>
+  <si>
+    <t>4913cd06-7577-458b-9c78-bd8f7f912423</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:06.006244Z</t>
+  </si>
+  <si>
+    <t>73c20c79-b536-47fb-ac00-aa8725b1f27e</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:07.009127Z</t>
+  </si>
+  <si>
+    <t>202bb975-9d92-4fc4-81fc-8e43595e1354</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:08.004590Z</t>
+  </si>
+  <si>
+    <t>a23efc88-d20d-458b-a66b-98db9f61239d</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:09.014467Z</t>
+  </si>
+  <si>
+    <t>d463714f-5232-4fb9-936f-d0331f510e6c</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:10.009386Z</t>
+  </si>
+  <si>
+    <t>5db4da8e-4f69-491e-ab65-d6244c405822</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:11.006922Z</t>
+  </si>
+  <si>
+    <t>76b266b9-f8f0-4a18-ba9b-cfb95d33950f</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:12.004495Z</t>
+  </si>
+  <si>
+    <t>f4949899-1903-482f-8fbd-49641146186a</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:13.000965Z</t>
+  </si>
+  <si>
+    <t>5460c010-88fe-4545-825e-d0b360bee3ef</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:14.011790Z</t>
+  </si>
+  <si>
+    <t>0b84da1d-68be-407d-a3c2-e04fbd9a0ed2</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:15.010785Z</t>
+  </si>
+  <si>
+    <t>a0b25b7b-e54f-4ae7-8117-1826c6d986c7</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:16.006400Z</t>
+  </si>
+  <si>
+    <t>7cd9e766-533f-422d-bca1-f2a8aa3e0d16</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:17.006622Z</t>
+  </si>
+  <si>
+    <t>55084c33-bf05-4ed9-8078-1b7d186f60ef</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:18.011861Z</t>
+  </si>
+  <si>
+    <t>fbfc80a6-e935-4f64-b497-aab449a8f2d9</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:19.006515Z</t>
+  </si>
+  <si>
+    <t>5d81a1c7-80bb-4ac1-aef7-171cec12eeef</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:20.012365Z</t>
+  </si>
+  <si>
+    <t>b50cba94-151d-4852-ad35-931a8a84e696</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:21.002860Z</t>
+  </si>
+  <si>
+    <t>798f7133-4173-46d8-9682-f646d0fbbf97</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:22.010040Z</t>
+  </si>
+  <si>
+    <t>a256d6c1-1994-483e-9c5e-4e17fd67ddd7</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:23.003675Z</t>
+  </si>
+  <si>
+    <t>f59b4d8f-49f6-4774-9aee-85e1f11db7b8</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:24.013709Z</t>
+  </si>
+  <si>
+    <t>0bff00f1-3612-43f6-9964-d3aa8ad2a70c</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:25.005290Z</t>
+  </si>
+  <si>
+    <t>17757f41-29fb-48cf-95a3-8fbab9d3d088</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:26.011202Z</t>
+  </si>
+  <si>
+    <t>6c34f43b-dcd6-4edf-92cf-3d63eaade361</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:27.012627Z</t>
+  </si>
+  <si>
+    <t>ff229678-1784-483b-b229-747aa74bb204</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:28.004971Z</t>
+  </si>
+  <si>
+    <t>95855b38-ccda-45b8-9ba0-120ee116f3d5</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:29.008961Z</t>
+  </si>
+  <si>
+    <t>afcb9d16-386f-4154-b5fe-3633f31eabb9</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:30.013150Z</t>
+  </si>
+  <si>
+    <t>1b8a4e06-e847-4df8-9b83-91637de6646c</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:31.003990Z</t>
+  </si>
+  <si>
+    <t>3e711832-9da9-4a8d-8336-296e2638317d</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:32.005459Z</t>
+  </si>
+  <si>
+    <t>69f15b57-f079-4ace-8a24-ab105faeec45</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:33.015420Z</t>
+  </si>
+  <si>
+    <t>607d3f85-8417-4e96-82bf-5d1ad1fdd618</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:34.006970Z</t>
+  </si>
+  <si>
+    <t>80105da5-c7a6-432e-9f92-c411c15280c3</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:35.014825Z</t>
+  </si>
+  <si>
+    <t>08fa5cf2-3f02-40f4-8134-39f455f36254</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:36.005419Z</t>
+  </si>
+  <si>
+    <t>5bc22001-164c-4772-bc96-3f937ee6daf6</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:37.012850Z</t>
+  </si>
+  <si>
+    <t>940ee686-c1ad-4932-b23b-dc7833182508</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:38.007928Z</t>
+  </si>
+  <si>
+    <t>c013fe1c-e283-438f-bbef-722b52176eef</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:39.010832Z</t>
+  </si>
+  <si>
+    <t>c485d9f7-65ad-462a-a1e5-1d72df76a238</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:40.000895Z</t>
+  </si>
+  <si>
+    <t>e2cde888-e0f3-4840-b643-c470fef0ef53</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:41.014228Z</t>
+  </si>
+  <si>
+    <t>fee0da34-2743-41a5-99a6-742f6e7f9bd5</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:42.005331Z</t>
+  </si>
+  <si>
+    <t>a9163bb8-3f46-4c15-b162-0296dce03e90</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:43.011617Z</t>
+  </si>
+  <si>
+    <t>79505256-e670-4876-a6ce-c724da2e7242</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:44.008343Z</t>
+  </si>
+  <si>
+    <t>07b55e52-ceef-4f20-b4f4-c76c1e02143e</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:45.013966Z</t>
+  </si>
+  <si>
+    <t>95636335-2034-4769-954b-587d3903f661</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:46.013500Z</t>
+  </si>
+  <si>
+    <t>16dae255-1c18-4d34-86ee-413e515168df</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:47.004571Z</t>
+  </si>
+  <si>
+    <t>04744df7-32b2-4af6-87e3-414b9eed90a3</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:48.015088Z</t>
+  </si>
+  <si>
+    <t>625df11b-58e0-42f4-9144-b1c0659c43c5</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:49.006539Z</t>
+  </si>
+  <si>
+    <t>5bbc63d1-258f-439f-86d9-7223a1aa7864</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:50.012719Z</t>
+  </si>
+  <si>
+    <t>eae9d44f-4a71-475a-9579-554ecd3e8767</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:51.003807Z</t>
+  </si>
+  <si>
+    <t>bdb6f7eb-f05c-4b5d-a7a3-4cefd6c39191</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:52.010106Z</t>
+  </si>
+  <si>
+    <t>15edd193-2a8d-44bb-a5ad-ff3ac249769f</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:53.002111Z</t>
+  </si>
+  <si>
+    <t>22d5751a-71c9-4180-ab23-96677574045f</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:54.009744Z</t>
+  </si>
+  <si>
+    <t>c4fa78a7-5186-4c8a-9d26-964391b17796</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:55.002673Z</t>
+  </si>
+  <si>
+    <t>a3fe6d46-9206-47ea-bd95-95f08947732c</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:56.012052Z</t>
+  </si>
+  <si>
+    <t>6494f57a-45cb-4488-b887-361f4668c850</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:57.000846Z</t>
+  </si>
+  <si>
+    <t>262731ed-0356-417e-89c4-fed4e3a6839e</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:58.008617Z</t>
+  </si>
+  <si>
+    <t>32011793-cc9f-4984-ac30-da1b744b53b2</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:47:59.015189Z</t>
+  </si>
+  <si>
+    <t>fb83e028-8d04-4979-aa09-d870a792dea1</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:00.003488Z</t>
+  </si>
+  <si>
+    <t>d1eda104-35ab-4d55-aceb-a1ff5e1ef980</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:01.008145Z</t>
+  </si>
+  <si>
+    <t>b408f8a1-81dc-461b-a433-6bf22c3fa829</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:02.013939Z</t>
+  </si>
+  <si>
+    <t>a2b0ca52-1a7d-4cde-a720-9a71e2e4a7cd</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:03.015685Z</t>
+  </si>
+  <si>
+    <t>5eb9f894-37f6-4359-aaea-3a6cf397cc00</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:04.011251Z</t>
+  </si>
+  <si>
+    <t>78538ff1-6857-4be5-8346-71c48327ffe8</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:05.002921Z</t>
+  </si>
+  <si>
+    <t>4846d7e2-56f5-46ae-8b2b-83da50bb7c89</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:06.009141Z</t>
+  </si>
+  <si>
+    <t>603fd723-8d38-491f-a2d4-e58c18bb4a43</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:07.000942Z</t>
+  </si>
+  <si>
+    <t>f2ce8835-53cc-4b12-9ce7-7e62f85b6b16</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:08.010576Z</t>
+  </si>
+  <si>
+    <t>5b4861dd-d342-42df-be84-10e88aaa4411</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:09.015150Z</t>
+  </si>
+  <si>
+    <t>798b0504-faa1-427d-905c-a93cd8ee619a</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:10.010521Z</t>
+  </si>
+  <si>
+    <t>d283c650-00e5-4642-bf13-258bcc47f611</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:11.004758Z</t>
+  </si>
+  <si>
+    <t>02dae71c-f9f8-467e-bf4a-dfa85f940a07</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:12.014484Z</t>
+  </si>
+  <si>
+    <t>2caa44a7-a9bc-4911-93d6-27b1936227f6</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:13.003347Z</t>
+  </si>
+  <si>
+    <t>21937582-0b82-45df-9314-c09748fa7f5f</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:14.008937Z</t>
+  </si>
+  <si>
+    <t>f40c9dfa-fdaf-4a0a-9521-f5b5dc141234</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:15.002763Z</t>
+  </si>
+  <si>
+    <t>2ae0a987-5172-4182-943c-a8c5142e3cde</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:16.010160Z</t>
+  </si>
+  <si>
+    <t>8144b45e-3027-420a-90ee-0b905473e352</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:17.003680Z</t>
+  </si>
+  <si>
+    <t>d075b2bf-305a-41e0-a35a-3d90e7d71f33</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:18.005750Z</t>
+  </si>
+  <si>
+    <t>7f426575-a7c6-4d57-8035-2aec94eaf0bf</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:19.010443Z</t>
+  </si>
+  <si>
+    <t>6d161d8e-cdc6-454a-9ad6-3f43eba4c8c6</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:20.014494Z</t>
+  </si>
+  <si>
+    <t>4c33b26f-c129-4337-bfb0-b0eba241df54</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:21.006844Z</t>
+  </si>
+  <si>
+    <t>802f9832-9646-4669-86f8-b32be5649280</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:22.012263Z</t>
+  </si>
+  <si>
+    <t>a0c406f6-3cc3-4f6f-9965-a4d67d28529e</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:23.001895Z</t>
+  </si>
+  <si>
+    <t>eb00614d-5519-463a-a5fa-5d87c45a1237</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:24.013716Z</t>
+  </si>
+  <si>
+    <t>32162e5e-8d09-4d64-abe8-191259ac2173</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:25.005587Z</t>
+  </si>
+  <si>
+    <t>e9d967a0-d503-4a6b-b347-aa19f5bc6972</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:26.015684Z</t>
+  </si>
+  <si>
+    <t>c7cbad75-4b13-45d8-aed5-aa04844a0ab0</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:27.006735Z</t>
+  </si>
+  <si>
+    <t>3b9cb7d6-c60e-4cad-b075-6239626f8785</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:28.013794Z</t>
+  </si>
+  <si>
+    <t>6cce1aee-31ae-4bb3-845c-b057c498ac3a</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:29.005619Z</t>
+  </si>
+  <si>
+    <t>4fd4a877-18a8-4065-a5a9-3635f12f4278</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:30.010024Z</t>
+  </si>
+  <si>
+    <t>a41f48df-d79d-491c-a416-7fbc0cc8c7d4</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:31.016146Z</t>
+  </si>
+  <si>
+    <t>1e218cff-6d09-4896-970c-aa30224394d0</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:32.009497Z</t>
+  </si>
+  <si>
+    <t>a40d8eb5-41fe-4745-bd30-057da5ee013a</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:33.001544Z</t>
+  </si>
+  <si>
+    <t>8090be1a-f131-4942-83ce-2c8d7418b184</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:34.014476Z</t>
+  </si>
+  <si>
+    <t>da4a14f4-637a-470e-b229-18ffba96321e</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:35.003019Z</t>
+  </si>
+  <si>
+    <t>c354d6bf-e06b-49e9-ab66-d38b85797869</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:36.007904Z</t>
+  </si>
+  <si>
+    <t>7fec1d4a-6e68-4db3-99c2-6367d5e5c9f2</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:37.012471Z</t>
+  </si>
+  <si>
+    <t>d823e725-381e-4431-b7bd-4fd20b5c39e5</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:38.005420Z</t>
+  </si>
+  <si>
+    <t>feec8148-db06-4704-a3ad-3a24bc1cc269</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:39.001647Z</t>
+  </si>
+  <si>
+    <t>0c77b395-0dd6-4f94-aa97-1240a5052c05</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:40.012252Z</t>
+  </si>
+  <si>
+    <t>d8b74019-627f-48fe-9688-8f9ea6bae5d2</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:41.009770Z</t>
+  </si>
+  <si>
+    <t>276fe96f-ac47-4c5e-a252-39a1c423b954</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:42.003575Z</t>
+  </si>
+  <si>
+    <t>bd48fa23-b4b4-4e5e-ae7b-97209cfc7388</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:43.009058Z</t>
+  </si>
+  <si>
+    <t>331c8189-7169-4bb9-86fa-e4a25fdd729a</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:44.003219Z</t>
+  </si>
+  <si>
+    <t>fc7fd821-9cac-4030-a2fd-ec933acf85e1</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:45.006855Z</t>
+  </si>
+  <si>
+    <t>f4b95c9a-d216-4218-b2b7-07602325b8fa</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:46.014954Z</t>
+  </si>
+  <si>
+    <t>8272f979-5517-4b65-9e97-fc3a53c4d381</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:47.003444Z</t>
+  </si>
+  <si>
+    <t>b125a311-d940-4165-a11f-9f6f5b3e516c</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:48.009900Z</t>
+  </si>
+  <si>
+    <t>1743f8d1-227c-45da-8f35-5849c39b0c23</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:49.014392Z</t>
+  </si>
+  <si>
+    <t>c0b42414-ef4b-4c1e-accf-94967e8d61d8</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:50.006991Z</t>
+  </si>
+  <si>
+    <t>a9e4b4a0-3484-4f40-a3aa-d0b56ada5d90</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:51.013996Z</t>
+  </si>
+  <si>
+    <t>41a1c5ec-9a2b-4cc6-9984-4fd740ac999b</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:52.003020Z</t>
+  </si>
+  <si>
+    <t>56493469-b1e2-49e1-822c-e0c441967efb</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:53.009973Z</t>
+  </si>
+  <si>
+    <t>8069510e-47ae-4cae-b1bd-6c1dbbc47bef</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:54.006759Z</t>
+  </si>
+  <si>
+    <t>d1aa346c-31f1-4a76-b25b-b79b39bf7509</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:55.002264Z</t>
+  </si>
+  <si>
+    <t>676d8562-684c-4cfc-ad40-cfc7f8d1905f</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:56.010849Z</t>
+  </si>
+  <si>
+    <t>71940537-6e43-46a1-ab0b-ed82fdb2e719</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:57.007118Z</t>
+  </si>
+  <si>
+    <t>5b2736e5-ba93-4108-8f97-7c42357117b1</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:58.002441Z</t>
+  </si>
+  <si>
+    <t>7dff0d3b-b0b6-4b5b-a967-5296bdb5787d</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:48:59.007934Z</t>
+  </si>
+  <si>
+    <t>96e5e788-01b8-4fe9-9fa7-de81868d9bc6</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:00.006149Z</t>
+  </si>
+  <si>
+    <t>f3ef3b64-7423-42be-86f8-3a6ab3bb7582</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:01.001658Z</t>
+  </si>
+  <si>
+    <t>a5261daf-eaf8-4113-92cb-312a1ccdea22</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:02.011120Z</t>
+  </si>
+  <si>
+    <t>ea752939-3086-45bf-b8f8-28bc21026be2</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:03.009693Z</t>
+  </si>
+  <si>
+    <t>c8d0fda9-da16-4069-b0ce-34eeabac0528</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:04.008614Z</t>
+  </si>
+  <si>
+    <t>cf445869-0d64-4694-bb23-8d44dac91b5e</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:05.004766Z</t>
+  </si>
+  <si>
+    <t>c214123e-23df-47ce-b6a2-6d51e9d1b144</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:06.013074Z</t>
+  </si>
+  <si>
+    <t>c11457d4-17bd-45e5-937f-c4710311b842</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:07.013670Z</t>
+  </si>
+  <si>
+    <t>04285797-690f-43da-95b3-ad73ca186ba4</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:08.006314Z</t>
+  </si>
+  <si>
+    <t>d8270fcc-ebc6-4ecb-bee8-184c41c1babe</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:09.012457Z</t>
+  </si>
+  <si>
+    <t>d81d683d-236f-4a58-a404-24746c3718a6</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:10.008061Z</t>
+  </si>
+  <si>
+    <t>4e9522f8-c3d8-457d-9a45-1b1322d5f2be</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:11.001665Z</t>
+  </si>
+  <si>
+    <t>4acf3dfd-df80-4467-96c9-c223ea22002e</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:12.010563Z</t>
+  </si>
+  <si>
+    <t>cd0744e8-74e5-4e6d-8e3f-4757d8beb60d</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:13.015682Z</t>
+  </si>
+  <si>
+    <t>64a679a2-298e-44ab-a2f8-a6d0d8b5a98f</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:14.005722Z</t>
+  </si>
+  <si>
+    <t>97ba1540-1aaf-44a2-af85-157e5095b6fc</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:15.016280Z</t>
+  </si>
+  <si>
+    <t>13f496d3-4c58-45d2-97fd-5cbee926e420</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:16.005550Z</t>
+  </si>
+  <si>
+    <t>a34b9912-8f10-4461-bc02-96bdde64fd17</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:17.012494Z</t>
+  </si>
+  <si>
+    <t>97132f8c-cd3d-4c8a-b082-4789c69857f0</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:18.005697Z</t>
+  </si>
+  <si>
+    <t>562d21be-e966-46b4-a844-f0f8ce091657</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:19.014502Z</t>
+  </si>
+  <si>
+    <t>51a17198-f3ce-4e9c-bbf4-dd7bb6aa84d9</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:20.003244Z</t>
+  </si>
+  <si>
+    <t>ec3ffb11-d079-4771-a36a-a34cc7515eb8</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:21.006905Z</t>
+  </si>
+  <si>
+    <t>782b8d10-6efc-4f4b-9375-b4a63e0219a2</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:22.013114Z</t>
+  </si>
+  <si>
+    <t>ac9ce480-1f24-4ca8-aa6b-5f6f29ea9753</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:23.005845Z</t>
+  </si>
+  <si>
+    <t>4d3449a0-b34f-434a-81d5-08ccf42d7368</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:24.007454Z</t>
+  </si>
+  <si>
+    <t>a5fa420a-949f-4def-93ae-40d8b8798cf7</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:25.013375Z</t>
+  </si>
+  <si>
+    <t>1c74cafb-e7b2-44aa-867f-7c9a2d05ce9f</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:26.015225Z</t>
+  </si>
+  <si>
+    <t>5c8c01d4-f15c-4887-bb22-4f6ee453b0cb</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:27.002860Z</t>
+  </si>
+  <si>
+    <t>f653a20b-6adc-4a8e-bf79-3ecc0e759bdd</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:28.010819Z</t>
+  </si>
+  <si>
+    <t>d70cd8c7-99e8-4cc5-a55c-3c4b0642371a</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:29.012797Z</t>
+  </si>
+  <si>
+    <t>661570e0-0c38-4e52-a5a2-4fbd1df1c2f1</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:30.002307Z</t>
+  </si>
+  <si>
+    <t>8441bf98-ce6a-4d5e-be90-c7401c826f96</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:31.009434Z</t>
+  </si>
+  <si>
+    <t>a98a31d2-266a-4873-9082-54a2c4c2c015</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:32.012155Z</t>
+  </si>
+  <si>
+    <t>4544b2e4-b830-4cd6-903c-ac56242ef343</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:33.005201Z</t>
+  </si>
+  <si>
+    <t>51463aa7-57d6-4012-8877-9d5f962b1f7e</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:34.012875Z</t>
+  </si>
+  <si>
+    <t>2e3c53c0-74b0-417e-8425-c1d64438b4be</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:35.001738Z</t>
+  </si>
+  <si>
+    <t>1da3d5cd-ac46-46de-ab60-db5bdb389fc2</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:36.008598Z</t>
+  </si>
+  <si>
+    <t>3e1c8232-ebf7-4550-9ae5-d20dc108ae20</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:37.015237Z</t>
+  </si>
+  <si>
+    <t>6343613f-7ef4-46fe-8212-2fd98e90a4fa</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:38.009606Z</t>
+  </si>
+  <si>
+    <t>0dd0b828-3e99-4513-853b-9631a501d80a</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:39.001365Z</t>
+  </si>
+  <si>
+    <t>ea18618e-e093-43ec-9c69-ee3add44f0c2</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:40.012576Z</t>
+  </si>
+  <si>
+    <t>dc07b07f-02ca-4a51-9fe5-79c0c8a09d52</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:41.005013Z</t>
+  </si>
+  <si>
+    <t>39819de3-b952-433f-a38a-1bd29d9b2e98</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:42.013379Z</t>
+  </si>
+  <si>
+    <t>8cfa1a32-f2ee-40f0-93fc-bc519807a2cb</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:43.004219Z</t>
+  </si>
+  <si>
+    <t>c6a25067-3934-4d78-aaa7-edf7999c18e6</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:44.011454Z</t>
+  </si>
+  <si>
+    <t>db42bb9f-8bee-4dbc-9b71-c02591f7c4a6</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:45.001642Z</t>
+  </si>
+  <si>
+    <t>6d7905d5-32d7-4721-bf2c-a8112d07b301</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:46.006628Z</t>
+  </si>
+  <si>
+    <t>a32c4e10-7871-407a-bab9-ad04cda85140</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:47.012748Z</t>
+  </si>
+  <si>
+    <t>ed01c8ae-8111-4f44-95e4-2892ef68b141</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:48.003649Z</t>
+  </si>
+  <si>
+    <t>d6006688-6b02-4532-9089-4d370387fded</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:49.004711Z</t>
+  </si>
+  <si>
+    <t>d4171d6e-e3af-43dd-b9fe-2dfb9634a5ab</t>
+  </si>
+  <si>
+    <t>2023-01-16T14:49:52.639242Z</t>
   </si>
 </sst>
 </file>
@@ -444,7 +1980,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECEC85C-72A7-4AB3-AF98-47886E3F9A4F}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -551,6 +2087,4341 @@
         <v>17</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>109</v>
+      </c>
+      <c r="E51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>113</v>
+      </c>
+      <c r="E53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>115</v>
+      </c>
+      <c r="E54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>133</v>
+      </c>
+      <c r="E63" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>137</v>
+      </c>
+      <c r="E65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>141</v>
+      </c>
+      <c r="E67" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>145</v>
+      </c>
+      <c r="E69" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>147</v>
+      </c>
+      <c r="E70" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>149</v>
+      </c>
+      <c r="E71" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>151</v>
+      </c>
+      <c r="E72" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>153</v>
+      </c>
+      <c r="E73" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>155</v>
+      </c>
+      <c r="E74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>156</v>
+      </c>
+      <c r="B75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>157</v>
+      </c>
+      <c r="E75" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>159</v>
+      </c>
+      <c r="E76" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>161</v>
+      </c>
+      <c r="E77" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>162</v>
+      </c>
+      <c r="B78" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>163</v>
+      </c>
+      <c r="E78" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>164</v>
+      </c>
+      <c r="B79" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>165</v>
+      </c>
+      <c r="E79" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>166</v>
+      </c>
+      <c r="B80" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>167</v>
+      </c>
+      <c r="E80" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>169</v>
+      </c>
+      <c r="E81" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>170</v>
+      </c>
+      <c r="B82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>171</v>
+      </c>
+      <c r="E82" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>172</v>
+      </c>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>173</v>
+      </c>
+      <c r="E83" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>174</v>
+      </c>
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>175</v>
+      </c>
+      <c r="E84" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>176</v>
+      </c>
+      <c r="B85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>177</v>
+      </c>
+      <c r="E85" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>178</v>
+      </c>
+      <c r="B86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D86" t="s">
+        <v>179</v>
+      </c>
+      <c r="E86" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>180</v>
+      </c>
+      <c r="B87" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D87" t="s">
+        <v>181</v>
+      </c>
+      <c r="E87" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>182</v>
+      </c>
+      <c r="B88" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>183</v>
+      </c>
+      <c r="E88" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>184</v>
+      </c>
+      <c r="B89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D89" t="s">
+        <v>185</v>
+      </c>
+      <c r="E89" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>186</v>
+      </c>
+      <c r="B90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>187</v>
+      </c>
+      <c r="E90" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>188</v>
+      </c>
+      <c r="B91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D91" t="s">
+        <v>189</v>
+      </c>
+      <c r="E91" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>190</v>
+      </c>
+      <c r="B92" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>191</v>
+      </c>
+      <c r="E92" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>192</v>
+      </c>
+      <c r="B93" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>193</v>
+      </c>
+      <c r="E93" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>194</v>
+      </c>
+      <c r="B94" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>195</v>
+      </c>
+      <c r="E94" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>196</v>
+      </c>
+      <c r="B95" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D95" t="s">
+        <v>197</v>
+      </c>
+      <c r="E95" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>198</v>
+      </c>
+      <c r="B96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D96" t="s">
+        <v>199</v>
+      </c>
+      <c r="E96" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>200</v>
+      </c>
+      <c r="B97" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D97" t="s">
+        <v>201</v>
+      </c>
+      <c r="E97" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>202</v>
+      </c>
+      <c r="B98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D98" t="s">
+        <v>203</v>
+      </c>
+      <c r="E98" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>204</v>
+      </c>
+      <c r="B99" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>205</v>
+      </c>
+      <c r="E99" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>206</v>
+      </c>
+      <c r="B100" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>207</v>
+      </c>
+      <c r="E100" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>208</v>
+      </c>
+      <c r="B101" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D101" t="s">
+        <v>209</v>
+      </c>
+      <c r="E101" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>210</v>
+      </c>
+      <c r="B102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D102" t="s">
+        <v>211</v>
+      </c>
+      <c r="E102" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>212</v>
+      </c>
+      <c r="B103" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D103" t="s">
+        <v>213</v>
+      </c>
+      <c r="E103" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>214</v>
+      </c>
+      <c r="B104" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D104" t="s">
+        <v>215</v>
+      </c>
+      <c r="E104" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>216</v>
+      </c>
+      <c r="B105" t="s">
+        <v>22</v>
+      </c>
+      <c r="C105" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D105" t="s">
+        <v>217</v>
+      </c>
+      <c r="E105" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>218</v>
+      </c>
+      <c r="B106" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D106" t="s">
+        <v>219</v>
+      </c>
+      <c r="E106" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>220</v>
+      </c>
+      <c r="B107" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D107" t="s">
+        <v>221</v>
+      </c>
+      <c r="E107" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>222</v>
+      </c>
+      <c r="B108" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D108" t="s">
+        <v>223</v>
+      </c>
+      <c r="E108" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>224</v>
+      </c>
+      <c r="B109" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D109" t="s">
+        <v>225</v>
+      </c>
+      <c r="E109" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>226</v>
+      </c>
+      <c r="B110" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D110" t="s">
+        <v>227</v>
+      </c>
+      <c r="E110" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>228</v>
+      </c>
+      <c r="B111" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D111" t="s">
+        <v>229</v>
+      </c>
+      <c r="E111" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>230</v>
+      </c>
+      <c r="B112" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D112" t="s">
+        <v>231</v>
+      </c>
+      <c r="E112" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>232</v>
+      </c>
+      <c r="B113" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D113" t="s">
+        <v>233</v>
+      </c>
+      <c r="E113" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>234</v>
+      </c>
+      <c r="B114" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D114" t="s">
+        <v>235</v>
+      </c>
+      <c r="E114" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>236</v>
+      </c>
+      <c r="B115" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D115" t="s">
+        <v>237</v>
+      </c>
+      <c r="E115" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>238</v>
+      </c>
+      <c r="B116" t="s">
+        <v>22</v>
+      </c>
+      <c r="C116" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D116" t="s">
+        <v>239</v>
+      </c>
+      <c r="E116" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>240</v>
+      </c>
+      <c r="B117" t="s">
+        <v>22</v>
+      </c>
+      <c r="C117" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D117" t="s">
+        <v>241</v>
+      </c>
+      <c r="E117" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>242</v>
+      </c>
+      <c r="B118" t="s">
+        <v>22</v>
+      </c>
+      <c r="C118" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D118" t="s">
+        <v>243</v>
+      </c>
+      <c r="E118" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>244</v>
+      </c>
+      <c r="B119" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D119" t="s">
+        <v>245</v>
+      </c>
+      <c r="E119" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>246</v>
+      </c>
+      <c r="B120" t="s">
+        <v>22</v>
+      </c>
+      <c r="C120" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D120" t="s">
+        <v>247</v>
+      </c>
+      <c r="E120" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>248</v>
+      </c>
+      <c r="B121" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D121" t="s">
+        <v>249</v>
+      </c>
+      <c r="E121" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>250</v>
+      </c>
+      <c r="B122" t="s">
+        <v>22</v>
+      </c>
+      <c r="C122" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D122" t="s">
+        <v>251</v>
+      </c>
+      <c r="E122" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>252</v>
+      </c>
+      <c r="B123" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D123" t="s">
+        <v>253</v>
+      </c>
+      <c r="E123" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>254</v>
+      </c>
+      <c r="B124" t="s">
+        <v>22</v>
+      </c>
+      <c r="C124" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D124" t="s">
+        <v>255</v>
+      </c>
+      <c r="E124" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>256</v>
+      </c>
+      <c r="B125" t="s">
+        <v>22</v>
+      </c>
+      <c r="C125" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D125" t="s">
+        <v>257</v>
+      </c>
+      <c r="E125" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>258</v>
+      </c>
+      <c r="B126" t="s">
+        <v>22</v>
+      </c>
+      <c r="C126" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D126" t="s">
+        <v>259</v>
+      </c>
+      <c r="E126" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>260</v>
+      </c>
+      <c r="B127" t="s">
+        <v>22</v>
+      </c>
+      <c r="C127" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D127" t="s">
+        <v>261</v>
+      </c>
+      <c r="E127" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>262</v>
+      </c>
+      <c r="B128" t="s">
+        <v>22</v>
+      </c>
+      <c r="C128" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D128" t="s">
+        <v>263</v>
+      </c>
+      <c r="E128" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>264</v>
+      </c>
+      <c r="B129" t="s">
+        <v>22</v>
+      </c>
+      <c r="C129" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D129" t="s">
+        <v>265</v>
+      </c>
+      <c r="E129" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>266</v>
+      </c>
+      <c r="B130" t="s">
+        <v>22</v>
+      </c>
+      <c r="C130" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D130" t="s">
+        <v>267</v>
+      </c>
+      <c r="E130" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>268</v>
+      </c>
+      <c r="B131" t="s">
+        <v>22</v>
+      </c>
+      <c r="C131" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D131" t="s">
+        <v>269</v>
+      </c>
+      <c r="E131" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>270</v>
+      </c>
+      <c r="B132" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D132" t="s">
+        <v>271</v>
+      </c>
+      <c r="E132" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>272</v>
+      </c>
+      <c r="B133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D133" t="s">
+        <v>273</v>
+      </c>
+      <c r="E133" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>274</v>
+      </c>
+      <c r="B134" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D134" t="s">
+        <v>275</v>
+      </c>
+      <c r="E134" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>276</v>
+      </c>
+      <c r="B135" t="s">
+        <v>22</v>
+      </c>
+      <c r="C135" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D135" t="s">
+        <v>277</v>
+      </c>
+      <c r="E135" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>278</v>
+      </c>
+      <c r="B136" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D136" t="s">
+        <v>279</v>
+      </c>
+      <c r="E136" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>280</v>
+      </c>
+      <c r="B137" t="s">
+        <v>22</v>
+      </c>
+      <c r="C137" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D137" t="s">
+        <v>281</v>
+      </c>
+      <c r="E137" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>282</v>
+      </c>
+      <c r="B138" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D138" t="s">
+        <v>283</v>
+      </c>
+      <c r="E138" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>284</v>
+      </c>
+      <c r="B139" t="s">
+        <v>22</v>
+      </c>
+      <c r="C139" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D139" t="s">
+        <v>285</v>
+      </c>
+      <c r="E139" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>286</v>
+      </c>
+      <c r="B140" t="s">
+        <v>22</v>
+      </c>
+      <c r="C140" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D140" t="s">
+        <v>287</v>
+      </c>
+      <c r="E140" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>288</v>
+      </c>
+      <c r="B141" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D141" t="s">
+        <v>289</v>
+      </c>
+      <c r="E141" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>290</v>
+      </c>
+      <c r="B142" t="s">
+        <v>22</v>
+      </c>
+      <c r="C142" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D142" t="s">
+        <v>291</v>
+      </c>
+      <c r="E142" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>292</v>
+      </c>
+      <c r="B143" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D143" t="s">
+        <v>293</v>
+      </c>
+      <c r="E143" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>294</v>
+      </c>
+      <c r="B144" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D144" t="s">
+        <v>295</v>
+      </c>
+      <c r="E144" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>296</v>
+      </c>
+      <c r="B145" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D145" t="s">
+        <v>297</v>
+      </c>
+      <c r="E145" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>298</v>
+      </c>
+      <c r="B146" t="s">
+        <v>22</v>
+      </c>
+      <c r="C146" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D146" t="s">
+        <v>299</v>
+      </c>
+      <c r="E146" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>300</v>
+      </c>
+      <c r="B147" t="s">
+        <v>22</v>
+      </c>
+      <c r="C147" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D147" t="s">
+        <v>301</v>
+      </c>
+      <c r="E147" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>302</v>
+      </c>
+      <c r="B148" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D148" t="s">
+        <v>303</v>
+      </c>
+      <c r="E148" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>304</v>
+      </c>
+      <c r="B149" t="s">
+        <v>22</v>
+      </c>
+      <c r="C149" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D149" t="s">
+        <v>305</v>
+      </c>
+      <c r="E149" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>306</v>
+      </c>
+      <c r="B150" t="s">
+        <v>22</v>
+      </c>
+      <c r="C150" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D150" t="s">
+        <v>307</v>
+      </c>
+      <c r="E150" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>308</v>
+      </c>
+      <c r="B151" t="s">
+        <v>22</v>
+      </c>
+      <c r="C151" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D151" t="s">
+        <v>309</v>
+      </c>
+      <c r="E151" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>310</v>
+      </c>
+      <c r="B152" t="s">
+        <v>22</v>
+      </c>
+      <c r="C152" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D152" t="s">
+        <v>311</v>
+      </c>
+      <c r="E152" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>312</v>
+      </c>
+      <c r="B153" t="s">
+        <v>22</v>
+      </c>
+      <c r="C153" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D153" t="s">
+        <v>313</v>
+      </c>
+      <c r="E153" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>314</v>
+      </c>
+      <c r="B154" t="s">
+        <v>22</v>
+      </c>
+      <c r="C154" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D154" t="s">
+        <v>315</v>
+      </c>
+      <c r="E154" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>316</v>
+      </c>
+      <c r="B155" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D155" t="s">
+        <v>317</v>
+      </c>
+      <c r="E155" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>318</v>
+      </c>
+      <c r="B156" t="s">
+        <v>22</v>
+      </c>
+      <c r="C156" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D156" t="s">
+        <v>319</v>
+      </c>
+      <c r="E156" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>320</v>
+      </c>
+      <c r="B157" t="s">
+        <v>22</v>
+      </c>
+      <c r="C157" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D157" t="s">
+        <v>321</v>
+      </c>
+      <c r="E157" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>322</v>
+      </c>
+      <c r="B158" t="s">
+        <v>22</v>
+      </c>
+      <c r="C158" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D158" t="s">
+        <v>323</v>
+      </c>
+      <c r="E158" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>324</v>
+      </c>
+      <c r="B159" t="s">
+        <v>22</v>
+      </c>
+      <c r="C159" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D159" t="s">
+        <v>325</v>
+      </c>
+      <c r="E159" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>326</v>
+      </c>
+      <c r="B160" t="s">
+        <v>22</v>
+      </c>
+      <c r="C160" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D160" t="s">
+        <v>327</v>
+      </c>
+      <c r="E160" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>328</v>
+      </c>
+      <c r="B161" t="s">
+        <v>22</v>
+      </c>
+      <c r="C161" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D161" t="s">
+        <v>329</v>
+      </c>
+      <c r="E161" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>330</v>
+      </c>
+      <c r="B162" t="s">
+        <v>22</v>
+      </c>
+      <c r="C162" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D162" t="s">
+        <v>331</v>
+      </c>
+      <c r="E162" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>332</v>
+      </c>
+      <c r="B163" t="s">
+        <v>22</v>
+      </c>
+      <c r="C163" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D163" t="s">
+        <v>333</v>
+      </c>
+      <c r="E163" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>334</v>
+      </c>
+      <c r="B164" t="s">
+        <v>22</v>
+      </c>
+      <c r="C164" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D164" t="s">
+        <v>335</v>
+      </c>
+      <c r="E164" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>336</v>
+      </c>
+      <c r="B165" t="s">
+        <v>22</v>
+      </c>
+      <c r="C165" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D165" t="s">
+        <v>337</v>
+      </c>
+      <c r="E165" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>338</v>
+      </c>
+      <c r="B166" t="s">
+        <v>22</v>
+      </c>
+      <c r="C166" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D166" t="s">
+        <v>339</v>
+      </c>
+      <c r="E166" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>340</v>
+      </c>
+      <c r="B167" t="s">
+        <v>22</v>
+      </c>
+      <c r="C167" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D167" t="s">
+        <v>341</v>
+      </c>
+      <c r="E167" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>342</v>
+      </c>
+      <c r="B168" t="s">
+        <v>22</v>
+      </c>
+      <c r="C168" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D168" t="s">
+        <v>343</v>
+      </c>
+      <c r="E168" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>344</v>
+      </c>
+      <c r="B169" t="s">
+        <v>22</v>
+      </c>
+      <c r="C169" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D169" t="s">
+        <v>345</v>
+      </c>
+      <c r="E169" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>346</v>
+      </c>
+      <c r="B170" t="s">
+        <v>22</v>
+      </c>
+      <c r="C170" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D170" t="s">
+        <v>347</v>
+      </c>
+      <c r="E170" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>348</v>
+      </c>
+      <c r="B171" t="s">
+        <v>22</v>
+      </c>
+      <c r="C171" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D171" t="s">
+        <v>349</v>
+      </c>
+      <c r="E171" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>350</v>
+      </c>
+      <c r="B172" t="s">
+        <v>22</v>
+      </c>
+      <c r="C172" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D172" t="s">
+        <v>351</v>
+      </c>
+      <c r="E172" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>352</v>
+      </c>
+      <c r="B173" t="s">
+        <v>22</v>
+      </c>
+      <c r="C173" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D173" t="s">
+        <v>353</v>
+      </c>
+      <c r="E173" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>354</v>
+      </c>
+      <c r="B174" t="s">
+        <v>22</v>
+      </c>
+      <c r="C174" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D174" t="s">
+        <v>355</v>
+      </c>
+      <c r="E174" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>356</v>
+      </c>
+      <c r="B175" t="s">
+        <v>22</v>
+      </c>
+      <c r="C175" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D175" t="s">
+        <v>357</v>
+      </c>
+      <c r="E175" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>358</v>
+      </c>
+      <c r="B176" t="s">
+        <v>22</v>
+      </c>
+      <c r="C176" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D176" t="s">
+        <v>359</v>
+      </c>
+      <c r="E176" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>360</v>
+      </c>
+      <c r="B177" t="s">
+        <v>22</v>
+      </c>
+      <c r="C177" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D177" t="s">
+        <v>361</v>
+      </c>
+      <c r="E177" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>362</v>
+      </c>
+      <c r="B178" t="s">
+        <v>22</v>
+      </c>
+      <c r="C178" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D178" t="s">
+        <v>363</v>
+      </c>
+      <c r="E178" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>364</v>
+      </c>
+      <c r="B179" t="s">
+        <v>22</v>
+      </c>
+      <c r="C179" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D179" t="s">
+        <v>365</v>
+      </c>
+      <c r="E179" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>366</v>
+      </c>
+      <c r="B180" t="s">
+        <v>22</v>
+      </c>
+      <c r="C180" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D180" t="s">
+        <v>367</v>
+      </c>
+      <c r="E180" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>368</v>
+      </c>
+      <c r="B181" t="s">
+        <v>22</v>
+      </c>
+      <c r="C181" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D181" t="s">
+        <v>369</v>
+      </c>
+      <c r="E181" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>370</v>
+      </c>
+      <c r="B182" t="s">
+        <v>22</v>
+      </c>
+      <c r="C182" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D182" t="s">
+        <v>371</v>
+      </c>
+      <c r="E182" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>372</v>
+      </c>
+      <c r="B183" t="s">
+        <v>22</v>
+      </c>
+      <c r="C183" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D183" t="s">
+        <v>373</v>
+      </c>
+      <c r="E183" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>374</v>
+      </c>
+      <c r="B184" t="s">
+        <v>22</v>
+      </c>
+      <c r="C184" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D184" t="s">
+        <v>375</v>
+      </c>
+      <c r="E184" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>376</v>
+      </c>
+      <c r="B185" t="s">
+        <v>22</v>
+      </c>
+      <c r="C185" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D185" t="s">
+        <v>377</v>
+      </c>
+      <c r="E185" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>378</v>
+      </c>
+      <c r="B186" t="s">
+        <v>22</v>
+      </c>
+      <c r="C186" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D186" t="s">
+        <v>379</v>
+      </c>
+      <c r="E186" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>380</v>
+      </c>
+      <c r="B187" t="s">
+        <v>22</v>
+      </c>
+      <c r="C187" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D187" t="s">
+        <v>381</v>
+      </c>
+      <c r="E187" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>382</v>
+      </c>
+      <c r="B188" t="s">
+        <v>22</v>
+      </c>
+      <c r="C188" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D188" t="s">
+        <v>383</v>
+      </c>
+      <c r="E188" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>384</v>
+      </c>
+      <c r="B189" t="s">
+        <v>22</v>
+      </c>
+      <c r="C189" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D189" t="s">
+        <v>385</v>
+      </c>
+      <c r="E189" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>386</v>
+      </c>
+      <c r="B190" t="s">
+        <v>22</v>
+      </c>
+      <c r="C190" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D190" t="s">
+        <v>387</v>
+      </c>
+      <c r="E190" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>388</v>
+      </c>
+      <c r="B191" t="s">
+        <v>22</v>
+      </c>
+      <c r="C191" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D191" t="s">
+        <v>389</v>
+      </c>
+      <c r="E191" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>390</v>
+      </c>
+      <c r="B192" t="s">
+        <v>22</v>
+      </c>
+      <c r="C192" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D192" t="s">
+        <v>391</v>
+      </c>
+      <c r="E192" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>392</v>
+      </c>
+      <c r="B193" t="s">
+        <v>22</v>
+      </c>
+      <c r="C193" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D193" t="s">
+        <v>393</v>
+      </c>
+      <c r="E193" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>394</v>
+      </c>
+      <c r="B194" t="s">
+        <v>22</v>
+      </c>
+      <c r="C194" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D194" t="s">
+        <v>395</v>
+      </c>
+      <c r="E194" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>396</v>
+      </c>
+      <c r="B195" t="s">
+        <v>22</v>
+      </c>
+      <c r="C195" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D195" t="s">
+        <v>397</v>
+      </c>
+      <c r="E195" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>398</v>
+      </c>
+      <c r="B196" t="s">
+        <v>22</v>
+      </c>
+      <c r="C196" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D196" t="s">
+        <v>399</v>
+      </c>
+      <c r="E196" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>400</v>
+      </c>
+      <c r="B197" t="s">
+        <v>22</v>
+      </c>
+      <c r="C197" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D197" t="s">
+        <v>401</v>
+      </c>
+      <c r="E197" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>402</v>
+      </c>
+      <c r="B198" t="s">
+        <v>22</v>
+      </c>
+      <c r="C198" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D198" t="s">
+        <v>403</v>
+      </c>
+      <c r="E198" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>404</v>
+      </c>
+      <c r="B199" t="s">
+        <v>22</v>
+      </c>
+      <c r="C199" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D199" t="s">
+        <v>405</v>
+      </c>
+      <c r="E199" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>406</v>
+      </c>
+      <c r="B200" t="s">
+        <v>22</v>
+      </c>
+      <c r="C200" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D200" t="s">
+        <v>407</v>
+      </c>
+      <c r="E200" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>408</v>
+      </c>
+      <c r="B201" t="s">
+        <v>22</v>
+      </c>
+      <c r="C201" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D201" t="s">
+        <v>409</v>
+      </c>
+      <c r="E201" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>410</v>
+      </c>
+      <c r="B202" t="s">
+        <v>22</v>
+      </c>
+      <c r="C202" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D202" t="s">
+        <v>411</v>
+      </c>
+      <c r="E202" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>412</v>
+      </c>
+      <c r="B203" t="s">
+        <v>22</v>
+      </c>
+      <c r="C203" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D203" t="s">
+        <v>413</v>
+      </c>
+      <c r="E203" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>414</v>
+      </c>
+      <c r="B204" t="s">
+        <v>22</v>
+      </c>
+      <c r="C204" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D204" t="s">
+        <v>415</v>
+      </c>
+      <c r="E204" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>416</v>
+      </c>
+      <c r="B205" t="s">
+        <v>22</v>
+      </c>
+      <c r="C205" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D205" t="s">
+        <v>417</v>
+      </c>
+      <c r="E205" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>418</v>
+      </c>
+      <c r="B206" t="s">
+        <v>22</v>
+      </c>
+      <c r="C206" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D206" t="s">
+        <v>419</v>
+      </c>
+      <c r="E206" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>420</v>
+      </c>
+      <c r="B207" t="s">
+        <v>22</v>
+      </c>
+      <c r="C207" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D207" t="s">
+        <v>421</v>
+      </c>
+      <c r="E207" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>422</v>
+      </c>
+      <c r="B208" t="s">
+        <v>22</v>
+      </c>
+      <c r="C208" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D208" t="s">
+        <v>423</v>
+      </c>
+      <c r="E208" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>424</v>
+      </c>
+      <c r="B209" t="s">
+        <v>22</v>
+      </c>
+      <c r="C209" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D209" t="s">
+        <v>425</v>
+      </c>
+      <c r="E209" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>426</v>
+      </c>
+      <c r="B210" t="s">
+        <v>22</v>
+      </c>
+      <c r="C210" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D210" t="s">
+        <v>427</v>
+      </c>
+      <c r="E210" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>428</v>
+      </c>
+      <c r="B211" t="s">
+        <v>22</v>
+      </c>
+      <c r="C211" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D211" t="s">
+        <v>429</v>
+      </c>
+      <c r="E211" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>430</v>
+      </c>
+      <c r="B212" t="s">
+        <v>22</v>
+      </c>
+      <c r="C212" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D212" t="s">
+        <v>431</v>
+      </c>
+      <c r="E212" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>432</v>
+      </c>
+      <c r="B213" t="s">
+        <v>22</v>
+      </c>
+      <c r="C213" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D213" t="s">
+        <v>433</v>
+      </c>
+      <c r="E213" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>434</v>
+      </c>
+      <c r="B214" t="s">
+        <v>22</v>
+      </c>
+      <c r="C214" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D214" t="s">
+        <v>435</v>
+      </c>
+      <c r="E214" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>436</v>
+      </c>
+      <c r="B215" t="s">
+        <v>22</v>
+      </c>
+      <c r="C215" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D215" t="s">
+        <v>437</v>
+      </c>
+      <c r="E215" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>438</v>
+      </c>
+      <c r="B216" t="s">
+        <v>22</v>
+      </c>
+      <c r="C216" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D216" t="s">
+        <v>439</v>
+      </c>
+      <c r="E216" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>440</v>
+      </c>
+      <c r="B217" t="s">
+        <v>22</v>
+      </c>
+      <c r="C217" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D217" t="s">
+        <v>441</v>
+      </c>
+      <c r="E217" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>442</v>
+      </c>
+      <c r="B218" t="s">
+        <v>22</v>
+      </c>
+      <c r="C218" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D218" t="s">
+        <v>443</v>
+      </c>
+      <c r="E218" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>444</v>
+      </c>
+      <c r="B219" t="s">
+        <v>22</v>
+      </c>
+      <c r="C219" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D219" t="s">
+        <v>445</v>
+      </c>
+      <c r="E219" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>446</v>
+      </c>
+      <c r="B220" t="s">
+        <v>22</v>
+      </c>
+      <c r="C220" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D220" t="s">
+        <v>447</v>
+      </c>
+      <c r="E220" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>448</v>
+      </c>
+      <c r="B221" t="s">
+        <v>22</v>
+      </c>
+      <c r="C221" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D221" t="s">
+        <v>449</v>
+      </c>
+      <c r="E221" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>450</v>
+      </c>
+      <c r="B222" t="s">
+        <v>22</v>
+      </c>
+      <c r="C222" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D222" t="s">
+        <v>451</v>
+      </c>
+      <c r="E222" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>452</v>
+      </c>
+      <c r="B223" t="s">
+        <v>22</v>
+      </c>
+      <c r="C223" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D223" t="s">
+        <v>453</v>
+      </c>
+      <c r="E223" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>454</v>
+      </c>
+      <c r="B224" t="s">
+        <v>22</v>
+      </c>
+      <c r="C224" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D224" t="s">
+        <v>455</v>
+      </c>
+      <c r="E224" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>456</v>
+      </c>
+      <c r="B225" t="s">
+        <v>22</v>
+      </c>
+      <c r="C225" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D225" t="s">
+        <v>457</v>
+      </c>
+      <c r="E225" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>458</v>
+      </c>
+      <c r="B226" t="s">
+        <v>22</v>
+      </c>
+      <c r="C226" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D226" t="s">
+        <v>459</v>
+      </c>
+      <c r="E226" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>460</v>
+      </c>
+      <c r="B227" t="s">
+        <v>22</v>
+      </c>
+      <c r="C227" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D227" t="s">
+        <v>461</v>
+      </c>
+      <c r="E227" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>462</v>
+      </c>
+      <c r="B228" t="s">
+        <v>22</v>
+      </c>
+      <c r="C228" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D228" t="s">
+        <v>463</v>
+      </c>
+      <c r="E228" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>464</v>
+      </c>
+      <c r="B229" t="s">
+        <v>22</v>
+      </c>
+      <c r="C229" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D229" t="s">
+        <v>465</v>
+      </c>
+      <c r="E229" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>466</v>
+      </c>
+      <c r="B230" t="s">
+        <v>22</v>
+      </c>
+      <c r="C230" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D230" t="s">
+        <v>467</v>
+      </c>
+      <c r="E230" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>468</v>
+      </c>
+      <c r="B231" t="s">
+        <v>22</v>
+      </c>
+      <c r="C231" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D231" t="s">
+        <v>469</v>
+      </c>
+      <c r="E231" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>470</v>
+      </c>
+      <c r="B232" t="s">
+        <v>22</v>
+      </c>
+      <c r="C232" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D232" t="s">
+        <v>471</v>
+      </c>
+      <c r="E232" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>472</v>
+      </c>
+      <c r="B233" t="s">
+        <v>22</v>
+      </c>
+      <c r="C233" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D233" t="s">
+        <v>473</v>
+      </c>
+      <c r="E233" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>474</v>
+      </c>
+      <c r="B234" t="s">
+        <v>22</v>
+      </c>
+      <c r="C234" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D234" t="s">
+        <v>475</v>
+      </c>
+      <c r="E234" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>476</v>
+      </c>
+      <c r="B235" t="s">
+        <v>22</v>
+      </c>
+      <c r="C235" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D235" t="s">
+        <v>477</v>
+      </c>
+      <c r="E235" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>478</v>
+      </c>
+      <c r="B236" t="s">
+        <v>22</v>
+      </c>
+      <c r="C236" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D236" t="s">
+        <v>479</v>
+      </c>
+      <c r="E236" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>480</v>
+      </c>
+      <c r="B237" t="s">
+        <v>22</v>
+      </c>
+      <c r="C237" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D237" t="s">
+        <v>481</v>
+      </c>
+      <c r="E237" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>482</v>
+      </c>
+      <c r="B238" t="s">
+        <v>22</v>
+      </c>
+      <c r="C238" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D238" t="s">
+        <v>483</v>
+      </c>
+      <c r="E238" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>484</v>
+      </c>
+      <c r="B239" t="s">
+        <v>22</v>
+      </c>
+      <c r="C239" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D239" t="s">
+        <v>485</v>
+      </c>
+      <c r="E239" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>486</v>
+      </c>
+      <c r="B240" t="s">
+        <v>22</v>
+      </c>
+      <c r="C240" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D240" t="s">
+        <v>487</v>
+      </c>
+      <c r="E240" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>488</v>
+      </c>
+      <c r="B241" t="s">
+        <v>22</v>
+      </c>
+      <c r="C241" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D241" t="s">
+        <v>489</v>
+      </c>
+      <c r="E241" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>490</v>
+      </c>
+      <c r="B242" t="s">
+        <v>22</v>
+      </c>
+      <c r="C242" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D242" t="s">
+        <v>491</v>
+      </c>
+      <c r="E242" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>492</v>
+      </c>
+      <c r="B243" t="s">
+        <v>22</v>
+      </c>
+      <c r="C243" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D243" t="s">
+        <v>493</v>
+      </c>
+      <c r="E243" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>494</v>
+      </c>
+      <c r="B244" t="s">
+        <v>22</v>
+      </c>
+      <c r="C244" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D244" t="s">
+        <v>495</v>
+      </c>
+      <c r="E244" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>496</v>
+      </c>
+      <c r="B245" t="s">
+        <v>22</v>
+      </c>
+      <c r="C245" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D245" t="s">
+        <v>497</v>
+      </c>
+      <c r="E245" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>498</v>
+      </c>
+      <c r="B246" t="s">
+        <v>22</v>
+      </c>
+      <c r="C246" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D246" t="s">
+        <v>499</v>
+      </c>
+      <c r="E246" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>500</v>
+      </c>
+      <c r="B247" t="s">
+        <v>22</v>
+      </c>
+      <c r="C247" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D247" t="s">
+        <v>501</v>
+      </c>
+      <c r="E247" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>502</v>
+      </c>
+      <c r="B248" t="s">
+        <v>22</v>
+      </c>
+      <c r="C248" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D248" t="s">
+        <v>503</v>
+      </c>
+      <c r="E248" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>504</v>
+      </c>
+      <c r="B249" t="s">
+        <v>22</v>
+      </c>
+      <c r="C249" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D249" t="s">
+        <v>505</v>
+      </c>
+      <c r="E249" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>506</v>
+      </c>
+      <c r="B250" t="s">
+        <v>22</v>
+      </c>
+      <c r="C250" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D250" t="s">
+        <v>507</v>
+      </c>
+      <c r="E250" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>508</v>
+      </c>
+      <c r="B251" t="s">
+        <v>22</v>
+      </c>
+      <c r="C251" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D251" t="s">
+        <v>509</v>
+      </c>
+      <c r="E251" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>510</v>
+      </c>
+      <c r="B252" t="s">
+        <v>22</v>
+      </c>
+      <c r="C252" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D252" t="s">
+        <v>511</v>
+      </c>
+      <c r="E252" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>512</v>
+      </c>
+      <c r="B253" t="s">
+        <v>22</v>
+      </c>
+      <c r="C253" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D253" t="s">
+        <v>513</v>
+      </c>
+      <c r="E253" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>514</v>
+      </c>
+      <c r="B254" t="s">
+        <v>22</v>
+      </c>
+      <c r="C254" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D254" t="s">
+        <v>515</v>
+      </c>
+      <c r="E254" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>516</v>
+      </c>
+      <c r="B255" t="s">
+        <v>22</v>
+      </c>
+      <c r="C255" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D255" t="s">
+        <v>517</v>
+      </c>
+      <c r="E255" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>518</v>
+      </c>
+      <c r="B256" t="s">
+        <v>22</v>
+      </c>
+      <c r="C256" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D256" t="s">
+        <v>519</v>
+      </c>
+      <c r="E256" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>520</v>
+      </c>
+      <c r="B257" t="s">
+        <v>22</v>
+      </c>
+      <c r="C257" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D257" t="s">
+        <v>521</v>
+      </c>
+      <c r="E257" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>522</v>
+      </c>
+      <c r="B258" t="s">
+        <v>22</v>
+      </c>
+      <c r="C258" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D258" t="s">
+        <v>523</v>
+      </c>
+      <c r="E258" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>524</v>
+      </c>
+      <c r="B259" t="s">
+        <v>22</v>
+      </c>
+      <c r="C259" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D259" t="s">
+        <v>525</v>
+      </c>
+      <c r="E259" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>526</v>
+      </c>
+      <c r="B260" t="s">
+        <v>22</v>
+      </c>
+      <c r="C260" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D260" t="s">
+        <v>527</v>
+      </c>
+      <c r="E260" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>528</v>
+      </c>
+      <c r="B261" t="s">
+        <v>19</v>
+      </c>
+      <c r="C261" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D261" t="s">
+        <v>529</v>
+      </c>
+      <c r="E261" t="s">
+        <v>529</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
